--- a/results/yaml_test/yaml_test.xlsx
+++ b/results/yaml_test/yaml_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thin\02_Code\Matlab\CryoGRID\2021-0605_CryoGrid\CryoGridTesting\results\yaml_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552E2C3E-3531-4F90-8831-0A0808CD3C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F116168-B11C-4712-8466-7E9A49319403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>FORCING_seb</t>
-  </si>
-  <si>
     <t>STRAT_layers</t>
   </si>
   <si>
@@ -631,6 +628,9 @@
   </si>
   <si>
     <t>max_wind_slab_density</t>
+  </si>
+  <si>
+    <t>FORCING_seb_old</t>
   </si>
 </sst>
 </file>
@@ -682,15 +682,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -974,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204:B204"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +986,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -998,35 +994,32 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1035,7 +1028,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1046,21 +1039,21 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,220 +1106,210 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>152</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
         <v>160</v>
       </c>
-      <c r="B24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>165</v>
       </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>189</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>192</v>
-      </c>
-      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-    </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
@@ -1337,7 +1320,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>14</v>
@@ -1345,7 +1328,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1353,52 +1336,52 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>0.25</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" t="s">
         <v>197</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>198</v>
-      </c>
-      <c r="D42" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1399,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>14</v>
@@ -1424,7 +1407,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -1432,44 +1415,44 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>59</v>
-      </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,7 +1462,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>14</v>
@@ -1487,7 +1470,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -1495,7 +1478,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1524,7 +1507,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -1535,64 +1518,64 @@
         <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="5">
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67">
         <v>1980</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67">
         <v>8</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="5">
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68">
         <v>1980</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68">
         <v>9</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -1620,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -1659,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -1687,12 +1670,12 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -1701,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,7 +1707,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -1732,10 +1715,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
         <v>167</v>
-      </c>
-      <c r="B83" t="s">
-        <v>168</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>24</v>
@@ -1747,7 +1730,7 @@
         <v>26</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,7 +1790,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,7 +1800,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>14</v>
@@ -1825,7 +1808,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -1833,27 +1816,27 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
         <v>170</v>
       </c>
-      <c r="B95" t="s">
-        <v>171</v>
-      </c>
       <c r="C95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" t="s">
         <v>68</v>
       </c>
-      <c r="D95" t="s">
-        <v>69</v>
-      </c>
       <c r="E95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>100</v>
+      <c r="C96" t="s">
+        <v>99</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1863,8 +1846,8 @@
       <c r="B97">
         <v>10</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>78</v>
+      <c r="C97" t="s">
+        <v>77</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1872,57 +1855,51 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>85</v>
-      </c>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>172</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C100" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="4">
-        <v>1</v>
-      </c>
-      <c r="C101" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>104</v>
+        <v>160</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -1932,7 +1909,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>14</v>
@@ -1940,7 +1917,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
@@ -1948,10 +1925,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>34</v>
@@ -1963,19 +1940,19 @@
         <v>20</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -2000,7 +1977,7 @@
       <c r="H110">
         <v>1</v>
       </c>
-      <c r="I110" s="8">
+      <c r="I110" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K110" s="3"/>
@@ -2027,7 +2004,7 @@
       <c r="H111">
         <v>2</v>
       </c>
-      <c r="I111" s="8">
+      <c r="I111" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K111" s="3"/>
@@ -2054,13 +2031,13 @@
       <c r="H112">
         <v>1</v>
       </c>
-      <c r="I112" s="8">
+      <c r="I112" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2068,24 +2045,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-      <c r="C116" s="7"/>
-    </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
@@ -2093,16 +2066,16 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,7 +2120,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2162,31 +2135,25 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B131" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="5"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B132" s="6">
-        <v>1</v>
-      </c>
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="5" t="s">
+      <c r="B134" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" t="s">
         <v>16</v>
       </c>
       <c r="D134" t="s">
@@ -2197,10 +2164,10 @@
       <c r="A135" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135">
         <v>0.15</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135">
         <v>0.15</v>
       </c>
       <c r="D135" t="s">
@@ -2214,10 +2181,10 @@
       <c r="A136" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136">
         <v>0.99</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136">
         <v>0.99</v>
       </c>
       <c r="D136" t="s">
@@ -2231,10 +2198,10 @@
       <c r="A137" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137">
         <v>1E-3</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137">
         <v>1E-3</v>
       </c>
       <c r="D137" t="s">
@@ -2244,76 +2211,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-    </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>71</v>
-      </c>
-      <c r="B139" s="8">
+        <v>70</v>
+      </c>
+      <c r="B139" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B140">
         <v>0.1</v>
       </c>
-      <c r="C140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B141">
         <v>0.1</v>
       </c>
-      <c r="C141" s="5"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B142">
         <v>0.5</v>
       </c>
-      <c r="C142" s="5"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>92</v>
-      </c>
-      <c r="B144" s="5">
+        <v>91</v>
+      </c>
+      <c r="B144">
         <v>1000</v>
       </c>
-      <c r="C144" s="5"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>93</v>
-      </c>
-      <c r="B145" s="5">
+        <v>92</v>
+      </c>
+      <c r="B145">
         <v>1000</v>
       </c>
-      <c r="C145" s="5"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>94</v>
-      </c>
-      <c r="B146" s="5">
+        <v>93</v>
+      </c>
+      <c r="B146">
         <v>-40</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" t="s">
         <v>0</v>
       </c>
       <c r="E146" t="s">
@@ -2322,12 +2275,12 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>95</v>
-      </c>
-      <c r="B147" s="5">
+        <v>94</v>
+      </c>
+      <c r="B147">
         <v>0.05</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147">
         <v>3600</v>
       </c>
       <c r="D147" t="s">
@@ -2339,12 +2292,12 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>96</v>
-      </c>
-      <c r="B148" s="5">
+        <v>95</v>
+      </c>
+      <c r="B148">
         <v>0.97</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148">
         <v>50000</v>
       </c>
       <c r="D148" t="s">
@@ -2356,98 +2309,84 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>97</v>
-      </c>
-      <c r="B149" s="5">
+        <v>96</v>
+      </c>
+      <c r="B149">
         <v>0.03</v>
       </c>
-      <c r="C149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" t="s">
         <v>0</v>
       </c>
-      <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>49</v>
-      </c>
-      <c r="B151" s="5">
+        <v>48</v>
+      </c>
+      <c r="B151">
         <v>3600</v>
       </c>
-      <c r="C151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>50</v>
-      </c>
-      <c r="B152" s="5">
+        <v>49</v>
+      </c>
+      <c r="B152">
         <v>50000</v>
       </c>
-      <c r="C152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>98</v>
-      </c>
-      <c r="B153" s="5">
+        <v>97</v>
+      </c>
+      <c r="B153">
         <v>0.01</v>
       </c>
-      <c r="C153" s="5"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>102</v>
-      </c>
-      <c r="B155" s="5">
+        <v>101</v>
+      </c>
+      <c r="B155">
         <v>0.05</v>
       </c>
-      <c r="C155" s="5"/>
       <c r="D155" t="s">
         <v>6</v>
       </c>
       <c r="E155" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156" t="s">
         <v>103</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C156" s="5"/>
       <c r="E156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>105</v>
-      </c>
-      <c r="B157" s="5">
-        <v>1</v>
-      </c>
-      <c r="C157" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
       <c r="E157" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>33</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
@@ -2459,28 +2398,25 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B161" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B162" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="B162" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="5" t="s">
+      <c r="B164" t="s">
         <v>15</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" t="s">
         <v>16</v>
       </c>
       <c r="D164" t="s">
@@ -2491,10 +2427,10 @@
       <c r="A165" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165">
         <v>0.15</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165">
         <v>0.15</v>
       </c>
       <c r="D165" t="s">
@@ -2508,10 +2444,10 @@
       <c r="A166" t="s">
         <v>2</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166">
         <v>0.99</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166">
         <v>0.99</v>
       </c>
       <c r="D166" t="s">
@@ -2525,10 +2461,10 @@
       <c r="A167" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167">
         <v>1E-3</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167">
         <v>1E-3</v>
       </c>
       <c r="D167" t="s">
@@ -2540,21 +2476,20 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>67</v>
-      </c>
-      <c r="B168" s="5">
+        <v>66</v>
+      </c>
+      <c r="B168">
         <v>100</v>
       </c>
-      <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" t="s">
         <v>0</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" t="s">
         <v>0</v>
       </c>
       <c r="E169" t="s">
@@ -2563,12 +2498,12 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>49</v>
-      </c>
-      <c r="B170" s="5">
+        <v>48</v>
+      </c>
+      <c r="B170">
         <v>3600</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170">
         <v>3600</v>
       </c>
       <c r="D170" t="s">
@@ -2580,12 +2515,12 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>50</v>
-      </c>
-      <c r="B171" s="5">
+        <v>49</v>
+      </c>
+      <c r="B171">
         <v>50000</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171">
         <v>50000</v>
       </c>
       <c r="D171" t="s">
@@ -2599,15 +2534,10 @@
       <c r="A172" t="s">
         <v>33</v>
       </c>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="5"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>14</v>
@@ -2615,7 +2545,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B175" s="2">
         <v>1</v>
@@ -2651,19 +2581,19 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
       <c r="C179" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" t="s">
         <v>180</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>181</v>
-      </c>
-      <c r="E179" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,7 +2632,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B182">
         <v>3600</v>
@@ -2719,7 +2649,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B183">
         <v>50000</v>
@@ -2736,7 +2666,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>0.05</v>
@@ -2744,10 +2674,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
         <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,14 +2685,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="5"/>
-    </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" t="s">
         <v>16</v>
       </c>
       <c r="D189" t="s">
@@ -2771,52 +2698,46 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B190" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="5"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B191" s="6">
-        <v>1</v>
-      </c>
-      <c r="C191" s="5"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="5" t="s">
+      <c r="B193" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>73</v>
-      </c>
-      <c r="B194" s="5">
+        <v>72</v>
+      </c>
+      <c r="B194">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>75</v>
-      </c>
-      <c r="B195" s="5">
+        <v>74</v>
+      </c>
+      <c r="B195">
         <v>0.71</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>74</v>
-      </c>
-      <c r="B196" s="5">
+        <v>73</v>
+      </c>
+      <c r="B196">
         <v>0.21</v>
       </c>
     </row>
@@ -2824,10 +2745,10 @@
       <c r="A197" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197">
         <v>0.99</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197">
         <v>0.99</v>
       </c>
       <c r="D197" t="s">
@@ -2841,10 +2762,10 @@
       <c r="A198" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198">
         <v>1E-3</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198">
         <v>1E-3</v>
       </c>
       <c r="D198" t="s">
@@ -2856,69 +2777,63 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>67</v>
-      </c>
-      <c r="B199" s="5">
+        <v>66</v>
+      </c>
+      <c r="B199">
         <v>0</v>
       </c>
-      <c r="C199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>75</v>
+      </c>
+      <c r="B200">
+        <v>48</v>
+      </c>
+      <c r="D200" t="s">
         <v>76</v>
-      </c>
-      <c r="B200" s="5">
-        <v>48</v>
-      </c>
-      <c r="C200" s="5"/>
-      <c r="D200" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>35</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201">
         <v>0.05</v>
       </c>
-      <c r="C201" s="5"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>71</v>
-      </c>
-      <c r="B202" s="8">
+        <v>70</v>
+      </c>
+      <c r="B202" s="4">
         <v>1E-4</v>
       </c>
-      <c r="C202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>72</v>
-      </c>
-      <c r="B203" s="5">
+        <v>71</v>
+      </c>
+      <c r="B203">
         <v>0.02</v>
       </c>
-      <c r="C203" s="5"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B204">
         <v>500</v>
       </c>
-      <c r="C204" s="5"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>49</v>
-      </c>
-      <c r="B205" s="5">
+        <v>48</v>
+      </c>
+      <c r="B205">
         <v>3600</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C205">
         <v>3600</v>
       </c>
       <c r="D205" t="s">
@@ -2930,12 +2845,12 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>50</v>
-      </c>
-      <c r="B206" s="5">
+        <v>49</v>
+      </c>
+      <c r="B206">
         <v>50000</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206">
         <v>50000</v>
       </c>
       <c r="D206" t="s">
@@ -2944,60 +2859,38 @@
       <c r="E206" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B212" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C212" s="5"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B213" s="6">
-        <v>1</v>
-      </c>
-      <c r="C213" s="5"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="5" t="s">
+      <c r="B215" t="s">
         <v>15</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" t="s">
         <v>16</v>
       </c>
       <c r="D215" t="s">
@@ -3006,31 +2899,16 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>86</v>
-      </c>
-      <c r="B216" s="5">
+        <v>85</v>
+      </c>
+      <c r="B216">
         <v>0.25</v>
       </c>
-      <c r="C216" s="5"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>33</v>
       </c>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -3039,25 +2917,19 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B222" t="s">
         <v>14</v>
       </c>
-      <c r="C222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B223" s="5">
-        <v>1</v>
-      </c>
-      <c r="C223" s="5"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
@@ -3072,95 +2944,81 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>111</v>
+      </c>
+      <c r="B226">
+        <v>100000</v>
+      </c>
+      <c r="D226" t="s">
         <v>112</v>
       </c>
-      <c r="B226" s="5">
-        <v>100000</v>
-      </c>
-      <c r="C226" s="5"/>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>113</v>
-      </c>
-      <c r="E226" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>114</v>
+      </c>
+      <c r="B227">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>112</v>
+      </c>
+      <c r="E227" t="s">
         <v>115</v>
-      </c>
-      <c r="B227" s="5">
-        <v>15</v>
-      </c>
-      <c r="C227" s="5"/>
-      <c r="D227" t="s">
-        <v>113</v>
-      </c>
-      <c r="E227" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>117</v>
-      </c>
-      <c r="B228" s="5">
+        <v>116</v>
+      </c>
+      <c r="B228">
         <v>0.03</v>
       </c>
-      <c r="C228" s="5">
+      <c r="C228">
         <v>0.03</v>
       </c>
       <c r="D228" t="s">
         <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>119</v>
-      </c>
-      <c r="B229" s="5">
+        <v>118</v>
+      </c>
+      <c r="B229">
         <v>10</v>
       </c>
-      <c r="C229" s="5"/>
       <c r="D229" t="s">
         <v>6</v>
       </c>
       <c r="E229" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>121</v>
-      </c>
-      <c r="B230" s="5">
+        <v>120</v>
+      </c>
+      <c r="B230">
         <v>10</v>
       </c>
-      <c r="C230" s="5"/>
       <c r="D230" t="s">
         <v>6</v>
       </c>
       <c r="E230" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>33</v>
       </c>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -3169,25 +3027,19 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B235" t="s">
         <v>14</v>
       </c>
-      <c r="C235" s="5"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B236" s="5">
-        <v>1</v>
-      </c>
-      <c r="C236" s="5"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
@@ -3202,85 +3054,78 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>123</v>
+      </c>
+      <c r="B239">
+        <v>18</v>
+      </c>
+      <c r="D239" t="s">
+        <v>112</v>
+      </c>
+      <c r="E239" t="s">
         <v>124</v>
-      </c>
-      <c r="B239" s="5">
-        <v>18</v>
-      </c>
-      <c r="C239" s="5"/>
-      <c r="D239" t="s">
-        <v>113</v>
-      </c>
-      <c r="E239" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>126</v>
-      </c>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
+        <v>125</v>
+      </c>
       <c r="D240" t="s">
         <v>22</v>
       </c>
       <c r="E240" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>117</v>
-      </c>
-      <c r="B241" s="5">
+        <v>116</v>
+      </c>
+      <c r="B241">
         <v>0.03</v>
       </c>
-      <c r="C241" s="5">
+      <c r="C241">
         <v>0.03</v>
       </c>
       <c r="D241" t="s">
         <v>5</v>
       </c>
       <c r="E241" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>128</v>
-      </c>
-      <c r="B242" s="5">
+        <v>127</v>
+      </c>
+      <c r="B242">
         <v>10</v>
       </c>
-      <c r="C242" s="5"/>
       <c r="D242" t="s">
         <v>6</v>
       </c>
       <c r="E242" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>130</v>
-      </c>
-      <c r="B243" s="5">
+        <v>129</v>
+      </c>
+      <c r="B243">
         <v>10</v>
       </c>
-      <c r="C243" s="5"/>
       <c r="D243" t="s">
         <v>6</v>
       </c>
       <c r="E243" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>33</v>
       </c>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
@@ -3289,7 +3134,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>14</v>
@@ -3297,7 +3142,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -3316,7 +3161,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -3331,7 +3176,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>14</v>
@@ -3339,7 +3184,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -3358,7 +3203,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
